--- a/산출물/무지출챌린지_요구사항정의서.xlsx
+++ b/산출물/무지출챌린지_요구사항정의서.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crown\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crown\Desktop\mujichul_challenge\zero_expense_challenge\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,7 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="119">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+  <x:si>
+    <x:t>next.js 변환 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고링크 :https://echarts.apache.org/examples/en/editor.html?c=pictorialBar-forest
+기여움 이슈로 인하여 월별 목표를 위해 모은금액을 점차적으로 보여주는 것으로하면어떨까함* 물론 나무는 달러동전으로 변경예정※ 검토 완</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">    </x:t>
+  </x:si>
   <x:si>
     <x:r>
       <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -62,29 +72,45 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>1. 개인정보 (비밀번호, 이메일, 사진,  자기소개등..)을 수정 및 등록할 수 있다</x:t>
+    <x:t>기본 로그인, SNS 로그인
+   * 이메일/아이디 + 비밀번호 로그인
+   * Google, Kakao, Naver 소셜 로그인 지원
+   * 필수 제공 정보: 이메일, 닉네임</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 월별 캘린더 조회
-2. 일별 사용금액 표시
-    * 일자 하단에 일별 총 사용금액 표시
-3. 일자 클릭시 기입란에 카테고리별 지출금액 표시
-4. 기입란의 사용금액 등록하기 버튼을 클릭시 지출금액 등록화면
-    으로 이동
-    * 이동시 View Transition API를 이용하여 네이티브앱과 같이 
-      부드럽게 화면전환을한다. (설명란에 참조링크)</x:t>
+    <x:t>1. 월별 설정된 월별 제한 금액 표시
+    ex) 금월 설정된 제한금액 30만원
+2. 설정한 목표 대비 달성률 표시
+    ex) 자동차 구매 : 10%달성   
+          혼자 해외여행 : 65% 달성
+3. 이번달 사용금액  표시
+    ex) 25만원
+4. 월별 제한 금액 - 사용금액 표시 (사용 가능한 예산)</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 개인목표 (자동차구매, 혼자여행 등등...)를 선택한다
-2. 개인목표에 해당되는 목표금액을 설정한다.</x:t>
+    <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>휴대폰 번호 입력, 인증번호 입력
-    * 휴대폰 번호 유효성 검증
-    * 3분 내 인증번호 입력 필수</x:t>
+    <x:t>MCSI0001</x:t>
   </x:si>
   <x:si>
-    <x:t>6. 월별 예산관리 페이지(이번달 가용 금액 설정, 가용금액 - 현재 총 사용량중 -값이 나오면 실시간 알림)</x:t>
+    <x:t xml:space="preserve">회원가입 안내 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCSI0002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCDB0005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 필수정보 입력: 아이디, 비밀번호, 이메일, 핸드폰번호
+    * 비밀번호 : 영문자, 숫자, 특수문자를 포함한 9자리이상으로 구성하며 암호화를 통한 저장 필수
+    * 필수정보는 공란을 방지함 
+    * 중복 확인 필수
+2. 개인정보: 이름, 생년월일(8자리), 성별(남/여), 국적(내/외국인)
+3. 연락처: 통신사 선택, 휴대전화번호
+4. 약관동의: 필수 약관 동의
+5. XSS, SQL Injection 공격을 방지함</x:t>
   </x:si>
   <x:si>
     <x:t>1. 월별 설정된 목표금액 표시
@@ -97,19 +123,16 @@
 4. 목표금액 - 사용금액 표시 (사용 가능한 예산)</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 각 월의 일자별로 사용금액을 recharts.js 그래프로 표시
-    * 일정금액 이상사용시 우는 이미지, 무지출시 웃는이미지</x:t>
+    <x:t>1. 개인목표 (자동차구매, 혼자여행 등등...)를 선택한다
+2. 개인목표에 해당되는 목표금액을 설정한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 카테고리를 선택하여 금액을 등록할 수 있다.</x:t>
+    <x:t>OAuth 2.0 기반 인증을 통해 구글 계정 로그인 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>^ 위의 링크는 기여움 이슈로 인하여 월별 목표를 위해 모은금액을 점차적으로 보여주는 것으로하면어떨까함
-   * 물론 나무는 달러동전으로 변경예정
-   ※ 검토 완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 달마다 자동으로 빠져나갈 수 있게 고정비 지출 등록</x:t>
+    <x:t>가입 완료 확인
+    * 가입 성공 시 환영 메시지 표시
+    * 로그인 페이지로 자동 이동</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -151,22 +174,8 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>가입 완료 확인
-    * 가입 성공 시 환영 메시지 표시
-    * 로그인 페이지로 자동 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원명, 아이디 중복검사, 비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 월별 사용제한금액을 설정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대폰 번호 입력, 인증번호 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 월마다 빠져나가야 하는 고정지출을 일자에 선택하여 놓으면
-    캘린더에 모든 해당일자에 고정지출을 등록해 놓는다.</x:t>
+    <x:t>1. (앱) 오후 21시에 사용자에게 피드에 알람을 보내 오늘 등록할것을 요구 
+2. (웹) 오후 21시에 사용자에게 알림함에 알람을 보내 오늘 등록할것을 요구</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -208,128 +217,23 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>4. 분석 페이지(기간별 비교(예: 지난달 대비 이번 달), 최다 지출 카테고리 분석)</x:t>
+    <x:t>1. 월마다 빠져나가야 하는 고정지출을 일자에 선택하여 놓으면
+    캘린더에 모든 해당일자에 고정지출을 등록해 놓는다.</x:t>
   </x:si>
   <x:si>
-    <x:t>카카오 로그인 api 연동</x:t>
+    <x:t>MCMP0002</x:t>
   </x:si>
   <x:si>
-    <x:t>카테고리별 지출 그래프</x:t>
+    <x:t>MCSI0004</x:t>
   </x:si>
   <x:si>
-    <x:t>월별 일일 
-지출금액 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월별 사용제한금액 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>네이버 로그인 api 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구글 로그인 api 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 여부, 약관 동의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캘린더 (next.js)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 공동 가계부(가계부를 여러 사용자와 공유 가능, 팀/가족 지출 내역과 나의 지출 비교) -&gt; 웹소켓이나 firebase 사용해야할듯</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">참고링크 : </x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="Arial"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff1155cc"/>
-            <x:u/>
-            <hs:underlineType val="1"/>
-            <hs:underlineShape val="solid"/>
-            <hs:underlineColor rgb="ff1155cc"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="Arial"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff1155cc"/>
-            <x:u/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>https://echarts.apache.org/examples/en/editor.html?c=pictorialBar-forest</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>1. 월별 설정된 월별 제한 금액 표시
-    ex) 금월 설정된 제한금액 30만원
-2. 설정한 목표 대비 달성률 표시
-    ex) 자동차 구매 : 10%달성   
-          혼자 해외여행 : 65% 달성
-3. 이번달 사용금액  표시
-    ex) 25만원
-4. 월별 제한 금액 - 사용금액 표시 (사용 가능한 예산)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OAuth 2.0 기반 REST API를 활용한 네이버 계정 로그인 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REST API와 JavaScript SDK를 활용한 카카오 계정 로그인 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OAuth 2.0 기반 인증을 통해 구글 계정 로그인 연동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 저축 목표 관리 페이지(목표 금액 설정 및 달성도 표시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. (앱) 오후 21시에 사용자에게 피드에 알람을 보내 오늘 등록할것을 
-    요구 
-2. (웹) 오후 21시에 사용자에게 알림함에 알람을 보내 오늘 등록할것
-    을 요구</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 로그인, SNS 로그인
-   * 이메일/아이디 + 비밀번호 로그인
-   * Google, Kakao, Naver 소셜 로그인 지원
-   * 필수 제공 정보: 이메일, 닉네임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. 회원들의 성과 조회
-    * 목표를 달성한 회원 목록
-    * 나와 지출이 비슷한 사람들의 랭킹 확인 (전부 조회는되는데 숨겨져 있고 내 위아래 10명까지만 조회되고 중앙에 자신을 포커싱)
-    * 개인 vs. 회원 평균 비교를 위한 시각화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Location</x:t>
+    <x:t>MCSU0002</x:t>
   </x:si>
   <x:si>
     <x:t>Page Name</x:t>
   </x:si>
   <x:si>
-    <x:t>MCMP0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCSU0002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MCSI0004</x:t>
+    <x:t>MCDB0003</x:t>
   </x:si>
   <x:si>
     <x:t>가입 완료 확인</x:t>
@@ -338,7 +242,7 @@
     <x:t>오른쪽 그림 참조</x:t>
   </x:si>
   <x:si>
-    <x:t>MCDB0003</x:t>
+    <x:t>Location</x:t>
   </x:si>
   <x:si>
     <x:t>MCMP0001</x:t>
@@ -350,28 +254,95 @@
     <x:t>MCSI0003</x:t>
   </x:si>
   <x:si>
-    <x:t>MCSI0001</x:t>
+    <x:t>REST API와 JavaScript SDK를 활용한 카카오 계정 로그인 연동</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">회원가입 안내 </x:t>
+    <x:t>OAuth 2.0 기반 REST API를 활용한 네이버 계정 로그인 연동</x:t>
   </x:si>
   <x:si>
-    <x:t>Description</x:t>
+    <x:t>1. 월별 캘린더 조회
+2. 일별 사용금액 표시
+    * 일자 하단에 일별 총 사용금액 표시
+3. 일자 클릭시 기입란에 카테고리별 지출금액 표시
+4. 기입란의 사용금액 등록하기 버튼을 클릭시 지출금액 등록화면
+    으로 이동
+    * 이동시 View Transition API를 이용하여 네이티브앱과 같이 
+      부드럽게 화면전환을한다. (설명란에 참조링크)</x:t>
   </x:si>
   <x:si>
-    <x:t>MCSI0002</x:t>
+    <x:t>No</x:t>
   </x:si>
   <x:si>
-    <x:t>MCDB0005</x:t>
+    <x:t>로그인</x:t>
   </x:si>
   <x:si>
-    <x:t>월별 고정지출 등록</x:t>
+    <x:t>완</x:t>
   </x:si>
   <x:si>
-    <x:t>MCDB0006</x:t>
+    <x:t>메모장</x:t>
   </x:si>
   <x:si>
-    <x:t>사용금액 등록 페이지</x:t>
+    <x:t>알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘린더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 로그인, SNS 로그인
+   * 이메일/아이디 + 비밀번호 로그인
+   * Google, Kakao, Naver 소셜 로그인 지원
+     * 필수 제공 정보: 이메일, 닉네임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 로그인 api 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캘린더 (next.js)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>네이버 로그인 api 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 여부, 약관 동의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오 로그인 api 연동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월별 사용제한금액 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리별 지출 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월별 일일 
+지출금액 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰 번호 입력, 인증번호 입력
+    * 휴대폰 번호 유효성 검증
+    * 3분 내 인증번호 입력 필수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원명, 아이디 중복검사, 비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대폰 번호 입력, 인증번호 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 월별 사용제한금액을 설정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일일 작성 알림</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MCDB0007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리별 지출현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일별 사용금액 등록</x:t>
   </x:si>
   <x:si>
     <x:t>MCDB0001</x:t>
@@ -380,51 +351,38 @@
     <x:t>1.월별 캘린더 조회</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">
-연 선택 수정 필요</x:t>
+    <x:t>MCDB0002</x:t>
   </x:si>
   <x:si>
-    <x:t>(참고 그림방)</x:t>
+    <x:t>MCDB0004</x:t>
   </x:si>
   <x:si>
-    <x:t>일별 사용금액 등록</x:t>
+    <x:t>목표달성률 위젯</x:t>
   </x:si>
   <x:si>
     <x:t>월별 고정지출 
 등록</x:t>
   </x:si>
   <x:si>
-    <x:t>MCDB0004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월별지출현황 그래프</x:t>
-  </x:si>
-  <x:si>
     <x:t>MCMP0003</x:t>
   </x:si>
   <x:si>
-    <x:t>MCDB0002</x:t>
+    <x:t>사용금액 등록 페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>카테고리별 지출현황</x:t>
+    <x:t>MCDB0006</x:t>
   </x:si>
   <x:si>
-    <x:t>목표달성률 위젯</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본 로그인, SNS 로그인
-   * 이메일/아이디 + 비밀번호 로그인
-   * Google, Kakao, Naver 소셜 로그인 지원
-     * 필수 제공 정보: 이메일, 닉네임</x:t>
+    <x:t>월별 고정지출 등록</x:t>
   </x:si>
   <x:si>
     <x:t>무지출 챌린지</x:t>
   </x:si>
   <x:si>
-    <x:t>Page ID</x:t>
+    <x:t>3Depth</x:t>
   </x:si>
   <x:si>
-    <x:t>3Depth</x:t>
+    <x:t>Page ID</x:t>
   </x:si>
   <x:si>
     <x:t>5Depth</x:t>
@@ -439,10 +397,25 @@
     <x:t>개인정보</x:t>
   </x:si>
   <x:si>
+    <x:t>네이버 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보수정</x:t>
+  </x:si>
+  <x:si>
     <x:t>마이페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>개인정보수정</x:t>
+    <x:t>Kakao</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구글 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인목표</x:t>
   </x:si>
   <x:si>
     <x:t>목표설정</x:t>
@@ -451,19 +424,61 @@
     <x:t xml:space="preserve">로그인 안내 </x:t>
   </x:si>
   <x:si>
-    <x:t>Kakao</x:t>
+    <x:t>Target</x:t>
   </x:si>
   <x:si>
-    <x:t>구글 로그인</x:t>
+    <x:t>기능해볼목표</x:t>
   </x:si>
   <x:si>
-    <x:t>네이버 로그인</x:t>
+    <x:t>Login</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입</x:t>
+    <x:t>목표달성률</x:t>
   </x:si>
   <x:si>
-    <x:t>개인목표</x:t>
+    <x:t>카카오 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SSO 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Naver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>images</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입완료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Google</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4Depth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대시보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용금액 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wep/App</x:t>
+  </x:si>
+  <x:si>
+    <x:t>본인인증</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월별지출현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1Depth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detail</x:t>
   </x:si>
   <x:si>
     <x:t>Content</x:t>
@@ -472,95 +487,13 @@
     <x:t>캘린더 위젯</x:t>
   </x:si>
   <x:si>
-    <x:t>대시보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wep/App</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Naver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월별지출현황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용금액 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SSO 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입완료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>images</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Google</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목표달성률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4Depth</x:t>
-  </x:si>
-  <x:si>
     <x:t>가입절차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기능해볼목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>본인인증</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1Depth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 필수정보 입력: 아이디, 비밀번호, 이메일, 핸드폰번호
-    * 비밀번호 : 영문자, 숫자, 특수문자를 포함한 9자리이상으로 구성하며 암호화를 통한 저장 필수
-    * 필수정보는 공란을 방지함 
-    * 중복 확인 필수
-2. 개인정보: 이름, 생년월일(8자리), 성별(남/여), 국적(내/외국인)
-3. 연락처: 통신사 선택, 휴대전화번호
-4. 약관동의: 필수 약관 동의
-5. XSS, SQL Injection 공격을 방지함</x:t>
   </x:si>
   <x:si>
     <x:t>1. 카테고리별 지출 현황을 Echart.js pie 그래프로표시</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 지출 입력 및 기록 페이지(카테고리를 선택하고 입력 할 수 있게)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>완</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메모장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캘린더</x:t>
+    <x:t>1. 카테고리를 선택하여 금액을 등록할 수 있다.</x:t>
   </x:si>
   <x:si>
     <x:t>// app/components/ExpenseCalendar.tsx
@@ -747,20 +680,423 @@
 export default ExpenseCalendar;</x:t>
   </x:si>
   <x:si>
-    <x:t>MCDB0007</x:t>
+    <x:t>1. 각 주의 주 별로 사용금액을 recharts.js 그래프로 표시
+    * 일정금액 이상사용시 우는 이미지, 무지출시 웃는이미지
+2. 2주 이상일 때는 주 별 통계 그래프. 그 이하면 일 별로 표시</x:t>
   </x:si>
   <x:si>
-    <x:t>일일 작성 알림</x:t>
+    <x:t>사용자 금액 등록 (html)</x:t>
   </x:si>
   <x:si>
-    <x:t>알림</x:t>
+    <x:t>일자별 카테고리 지출표시(html)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일자별 카고리 지출표시(html)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 저축 목표 관리 페이지(목표 금액 설정 및 달성도 표시)
+2. 분석 페이지(기간별 비교(예: 지난달 대비 이번 달), 최다 지출 카테고리 분석)
+3. 공동 가계부(가계부를 여러 사용자와 공유 가능, 팀/가족 지출 내역과 나의 지출 비교) -&gt; 웹소켓이나 firebase 사용해야할듯
+4. 월별 예산관리 페이지(이번달 가용 금액 설정, 가용금액 - 현재 총 사용량중 -값이 나오면 실시간 알림)
+5. 회원들의 성과 조회
+    * 목표를 달성한 회원 목록
+    * 나와 지출이 비슷한 사람들의 랭킹 확인 (전부 조회는되는데 숨겨져 있고 내 위아래 10명까지만 조회되고 중앙에 자신을 포커싱)
+    * 개인 vs. 회원 평균 비교를 위한 시각화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 개인정보 (닉네임, 프로필사진, 비밀번호, 이메일, 사진,  자기소개등..)을 수정 및 등록할 수 있다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>리서치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;!DOCTYPE html&gt;
+&lt;html lang="ko"&gt;
+&lt;head&gt;
+&lt;meta charset="UTF-8"&gt;
+&lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;    &lt;title&gt;월간 가계부&lt;/title&gt;
+&lt;link href="https://fonts.googleapis.com/css2?family=Noto+Sans+KR:wght@400;500;700&amp;display=swap" rel="stylesheet"&gt;    &lt;link href="https://cdnjs.cloudflare.com/ajax/libs/font-awesome/6.4.0/css/all.min.css" rel="stylesheet"&gt;
+&lt;link href="https://ai-public.creatie.ai/gen_page/tailwind-custom.css" rel="stylesheet"&gt;    &lt;script src="https://cdn.tailwindcss.com/3.4.5?plugins=forms@0.5.7,typography@0.5.13,aspect-ratio@0.4.2,container-queries@0.1.1"&gt;&lt;/script&gt;
+&lt;script src="https://ai-public.creatie.ai/gen_page/tailwind-config.min.js" data-color="#000000" data-border-radius="small"&gt;&lt;/script&gt;
+&lt;style&gt;
+body { background-color: #111827; color: #F9FAFB; }
+input::-webkit-outer-spin-button,
+input::-webkit-inner-spin-button {
+-webkit-appearance: none;
+margin: 0;
+}
+input[type=number] {
+-moz-appearance: textfield;
+}
+&lt;/style&gt;&lt;/head&gt;
+&lt;body class="min-h-screen bg-gray-900"&gt;
+&lt;div class="max-w-4xl mx-auto px-4 py-8"&gt;
+&lt;header class="mb-8"&gt;
+&lt;div class="flex justify-between items-center"&gt;                &lt;h1 class="text-2xl font-bold text-white"&gt;월간 가계부&lt;/h1&gt;
+&lt;div class="text-lg text-gray-300"&gt;2024년 2월&lt;/div&gt;
+&lt;/div&gt;
+&lt;/header&gt;
+&lt;div class="bg-gray-800 rounded-lg p-6 mb-8"&gt;
+&lt;div class="text-center"&gt;                &lt;p class="text-gray-400 mb-2"&gt;이번 달 총 지출&lt;/p&gt;
+&lt;h2 class="text-4xl font-bold text-custom mb-4"&gt;₩1,250,000&lt;/h2&gt;
+&lt;div class="flex justify-center items-center gap-4 text-sm"&gt;
+&lt;span class="text-green-400"&gt;&lt;i class="fas fa-arrow-down mr-1"&gt;&lt;/i&gt;전월대비 5.2% 감소&lt;/span&gt;
+&lt;span class="text-gray-400"&gt;|&lt;/span&gt;
+&lt;span class="text-gray-300"&gt;예산 대비 75%&lt;/span&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="w-full bg-gray-700 rounded-full h-2 mt-4"&gt;                &lt;div class="bg-custom h-2 rounded-full" style="width: 75%"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="space-y-4"&gt;            &lt;div class="flex gap-2 overflow-x-auto pb-4"&gt;
+&lt;button class="!rounded-button px-4 py-2 bg-custom text-white whitespace-nowrap"&gt;전체&lt;/button&gt;
+&lt;button class="!rounded-button px-4 py-2 bg-gray-700 text-white whitespace-nowrap hover:bg-gray-600"&gt;식비&lt;/button&gt;
+&lt;button class="!rounded-button px-4 py-2 bg-gray-700 text-white whitespace-nowrap hover:bg-gray-600"&gt;교통&lt;/button&gt;
+&lt;button class="!rounded-button px-4 py-2 bg-gray-700 text-white whitespace-nowrap hover:bg-gray-600"&gt;주거&lt;/button&gt;
+&lt;button class="!rounded-button px-4 py-2 bg-gray-700 text-white whitespace-nowrap hover:bg-gray-600"&gt;문화생활&lt;/button&gt;
+&lt;/div&gt;
+&lt;div class="space-y-4"&gt;
+&lt;div class="bg-gray-800 rounded-lg p-4"&gt;                    &lt;div class="flex items-center gap-4"&gt;
+&lt;div class="w-10 h-10 bg-custom/20 rounded-full flex items-center justify-center"&gt;                            &lt;i class="fas fa-utensils text-custom"&gt;&lt;/i&gt;
+&lt;/div&gt;
+&lt;div class="flex-1"&gt;                            &lt;h3 class="text-lg font-medium text-white"&gt;식비&lt;/h3&gt;
+&lt;p class="text-sm text-gray-400"&gt;이번 달 지출&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="relative"&gt;
+&lt;input type="number" class="bg-gray-700 border-gray-600 text-white px-4 py-2 !rounded-button w-32 text-right" placeholder="0"&gt;                            &lt;span class="absolute right-3 top-1/2 -translate-y-1/2 text-gray-400"&gt;원&lt;/span&gt;
+&lt;/div&gt;                    &lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="bg-gray-800 rounded-lg p-4"&gt;
+&lt;div class="flex items-center gap-4"&gt;                        &lt;div class="w-10 h-10 bg-custom/20 rounded-full flex items-center justify-center"&gt;
+&lt;i class="fas fa-gift text-custom"&gt;&lt;/i&gt;
+&lt;/div&gt;
+&lt;div class="flex-1"&gt;
+&lt;h3 class="text-lg font-medium text-white"&gt;경조사&lt;/h3&gt;
+&lt;p  class="text-sm text-gray-400"&gt;이번 달 지출&lt;/p&gt;
+&lt;/div&gt;
+&lt;div class="relative"&gt;                            &lt;input type="number" class="bg-gray-700 border-gray-600 text-white px-4 py-2 !rounded-button w-32 text-right" placeholder="0"&gt;                            &lt;span class="absolute right-3 top-1/2 -translate-y-1/2 text-gray-400"&gt;원&lt;/span&gt;
+&lt;/div&gt;                    &lt;/div&gt;
+&lt;/div&gt;
+&lt;div class="bg-gray-800 rounded-lg p-4"&gt;
+&lt;div class="flex items-center gap-4"&gt;                        &lt;div class="w-10 h-10 bg-custom/20 rounded-full flex items-center justify-center"&gt;
+&lt;i class="fas fa-bus text-custom"&gt;&lt;/i&gt;
+&lt;/div&gt;
+&lt;div class="flex-1"&gt;
+&lt;h3 class="text-lg font-medium text-white"&gt;교통&lt;/h3&gt;
+&lt;p class="text-sm text-g
+&lt;/div&gt;
+&lt;div class="relative"&gt;                            &lt;input type="number" class="bg-gray-700 border-gray-600 text-white px-4 py-2 !rounded-button w-32 text-right" placeholder="0"&gt;                            &lt;span class="absolute right-3 top-1/2 -translate-y-1/2 text-gray-400"&gt;원&lt;/span&gt;
+&lt;/div&gt;                    &lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;button class="fixed bottom-8 right-8 !rounded-button w-14 h-14 bg-custom text-white shadow-lg hover:bg-custom/90 flex items-center justify-center"&gt;        &lt;i class="fas fa-plus text-xl"&gt;&lt;/i&gt;
+&lt;/button&gt;
+&lt;/body&gt;
+&lt;/html&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang="ko"&gt;&lt;head&gt;
+    &lt;meta charset="UTF-8"/&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"/&gt;
+    &lt;title&gt;가계부 상세&lt;/title&gt;
+    &lt;link href="https://fonts.googleapis.com/css2?family=Noto+Sans+KR:wght@400;500;700&amp;amp;display=swap" rel="stylesheet"/&gt;
+    &lt;link href="https://cdnjs.cloudflare.com/ajax/libs/font-awesome/6.4.0/css/all.min.css" rel="stylesheet"/&gt;
+    &lt;link href="https://ai-public.creatie.ai/gen_page/tailwind-custom.css" rel="stylesheet"/&gt;
+    &lt;script src="https://cdn.tailwindcss.com/3.4.5?plugins=forms@0.5.7,typography@0.5.13,aspect-ratio@0.4.2,container-queries@0.1.1"&gt;&lt;/script&gt;
+    &lt;script src="https://ai-public.creatie.ai/gen_page/tailwind-config.min.js" data-color="#000000" data-border-radius="small"&gt;&lt;/script&gt;
+&lt;/head&gt;
+&lt;body class="bg-gray-900 font-[&amp;#39;Noto_Sans_KR&amp;#39;]"&gt;
+    &lt;div class="max-w-8xl mx-auto px-4 sm:px-6 lg:px-8 py-8"&gt;
+        &lt;div class="bg-gray-800 rounded-lg shadow-sm p-6 max-w-2xl mx-auto"&gt;
+            &lt;div class="flex items-center justify-between mb-6"&gt;
+                &lt;h2 class="text-xl font-bold text-white"&gt;2024년 2월 15일&lt;/h2&gt;
+                &lt;div class="text-sm text-gray-400"&gt;목요일&lt;/div&gt;
+            &lt;/div&gt;
+            &lt;div class="space-y-4 max-h-[400px] overflow-y-auto mb-6"&gt;
+                &lt;div class="flex items-center justify-between p-4 bg-gray-700 rounded-lg"&gt;
+                    &lt;div class="flex items-center gap-4"&gt;
+                        &lt;div class="w-10 h-10 rounded-full bg-blue-100 flex items-center justify-center"&gt;
+                            &lt;i class="fas fa-utensils text-blue-600"&gt;&lt;/i&gt;
+                        &lt;/div&gt;
+                        &lt;span class="font-medium text-white"&gt;식비&lt;/span&gt;
+                    &lt;/div&gt;
+                    &lt;span class="text-lg font-semibold text-white"&gt;15,000원&lt;/span&gt;
+                &lt;/div&gt;
+                &lt;div class="flex items-center justify-between p-4 bg-gray-700 rounded-lg"&gt;
+                    &lt;div class="flex items-center gap-4"&gt;
+                        &lt;div class="w-10 h-10 rounded-full bg-green-100 flex items-center justify-center"&gt;
+                            &lt;i class="fas fa-bus text-green-600"&gt;&lt;/i&gt;
+                        &lt;/div&gt;
+                        &lt;span class="font-medium text-white"&gt;교통비&lt;/span&gt;
+                    &lt;/div&gt;
+                    &lt;span class="text-lg font-semibold text-white"&gt;2,500원&lt;/span&gt;
+                &lt;/div&gt;
+                &lt;div class="flex items-center justify-between p-4 bg-gray-700 rounded-lg"&gt;
+                    &lt;div class="flex items-center gap-4"&gt;
+                        &lt;div class="w-10 h-10 rounded-full bg-purple-100 flex items-center justify-center"&gt;
+                            &lt;i class="fas fa-shopping-bag text-purple-600"&gt;&lt;/i&gt;
+                        &lt;/div&gt;
+                        &lt;span class="font-medium text-white"&gt;쇼핑&lt;/span&gt;
+                    &lt;/div&gt;
+                    &lt;span class="text-lg font-semibold text-white"&gt;45,000원&lt;/span&gt;
+                &lt;/div&gt;
+                &lt;div class="flex items-center justify-between p-4 bg-gray-700 rounded-lg"&gt;
+                    &lt;div class="flex items-center gap-4"&gt;
+                        &lt;div class="w-10 h-10 rounded-full bg-red-100 flex items-center justify-center"&gt;
+                            &lt;i class="fas fa-coffee text-red-600"&gt;&lt;/i&gt;
+                        &lt;/div&gt;
+                        &lt;span class="font-medium text-white"&gt;카페&lt;/span&gt;
+                    &lt;/div&gt;
+                    &lt;span class="text-lg font-semibold text-white"&gt;8,500원&lt;/span&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+            &lt;div class="border-t pt-4 flex items-center justify-between"&gt;
+                &lt;div class="text-gray-300"&gt;총 지출&lt;/div&gt;
+                &lt;div class="text-2xl font-bold text-white"&gt;71,000원&lt;/div&gt;
+            &lt;/div&gt;
+            &lt;div class="mt-6 text-right"&gt;
+                &lt;button class="!rounded-button bg-custom text-white px-6 py-3 font-medium hover:bg-custom/90 transition-colors"&gt;
+                    &lt;i class="fas fa-plus mr-2"&gt;&lt;/i&gt;지출 등록하기
+                &lt;/button&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그리드 (html)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연 선택 수정 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주별지출현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모두의 가계부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">&lt;!DOCTYPE html&gt;&lt;html lang="ko"&gt;&lt;head&gt;
+    &lt;meta charset="UTF-8"/&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"/&gt;
+    &lt;title&gt;주기 선택&lt;/title&gt;
+    &lt;link href="https://cdnjs.cloudflare.com/ajax/libs/font-awesome/6.4.0/css/all.min.css" rel="stylesheet"/&gt;
+    &lt;link href="https://ai-public.creatie.ai/gen_page/tailwind-custom.css" rel="stylesheet"/&gt;
+    &lt;script src="https://cdn.tailwindcss.com/3.4.5?plugins=forms@0.5.7,typography@0.5.13,aspect-ratio@0.4.2,container-queries@0.1.1"&gt;&lt;/script&gt;
+    &lt;script src="https://ai-public.creatie.ai/gen_page/tailwind-config.min.js" data-color="#000000" data-border-radius="small"&gt;&lt;/script&gt;
+&lt;/head&gt;
+&lt;body class="bg-gray-900 min-h-screen flex items-center justify-center"&gt;
+    &lt;div class="w-full max-w-2xl p-6 bg-gray-800 rounded-xl shadow-xl"&gt;
+        &lt;h1 class="text-2xl font-bold text-white mb-8 text-center"&gt;주기 선택&lt;/h1&gt;
+        &lt;div class="grid grid-cols-4 gap-4 p-6 bg-gray-800 rounded-lg"&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;주중&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;주말&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;매주&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;2주&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;4주&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;매월&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;월말&lt;/button&gt;
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;2개월&lt;/button&gt;            
+            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;3개월&lt;/button&gt;            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;4개월&lt;/button&gt;            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;6개월&lt;/button&gt;            &lt;button class="bg-gray-700 hover:bg-gray-600 border border-gray-600 text-gray-100 py-4 px-6 !rounded-button transition-all duration-200 hover:border-custom focus:outline-none focus:ring-2 focus:ring-custom focus:ring-opacity-50"&gt;1년&lt;/button&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+    &lt;script&gt;
+        const buttons = document.querySelectorAll('button');
+        buttons.forEach(button =&gt; {
+            button.addEventListener('click', () =&gt; {
+                buttons.forEach(b =&gt; b.classList.remove('bg-custom', 'text-white', 'border-custom'));
+                button.classList.remove('bg-white', 'text-gray-700');
+                button.classList.add('bg-custom', 'text-white', 'border-custom');
+            });
+        });
+    &lt;/script&gt;
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주별지출현황 그래프</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">&lt;!DOCTYPE html&gt;
+&lt;html lang="en"&gt;
+&lt;head&gt;
+    &lt;meta charset="UTF-8"&gt;
+    &lt;meta name="viewport" content="width=device-width, initial-scale=1.0"&gt;
+    &lt;title&gt;Household Ledger&lt;/title&gt;
+    &lt;link href="https://fonts.googleapis.com/css2?family=Inter:wght@400;500;600;700&amp;display=swap" rel="stylesheet"&gt;
+    &lt;link href="https://cdnjs.cloudflare.com/ajax/libs/font-awesome/6.4.0/css/all.min.css" rel="stylesheet"&gt;
+    &lt;link href="https://ai-public.creatie.ai/gen_page/tailwind-custom.css" rel="stylesheet"&gt;
+    &lt;script src="https://cdnjs.cloudflare.com/ajax/libs/echarts/5.5.0/echarts.min.js"&gt;&lt;/script&gt;
+    &lt;script src="https://cdn.tailwindcss.com/3.4.5?plugins=forms@0.5.7,typography@0.5.13,aspect-ratio@0.4.2,container-queries@0.1.1"&gt;&lt;/script&gt;
+    &lt;script src="https://ai-public.creatie.ai/gen_page/tailwind-config.min.js" data-color="#000000" data-border-radius="small"&gt;&lt;/script&gt;
+&lt;/head&gt;
+&lt;body class="bg-gray-900 text-white min-h-screen"&gt;
+    &lt;div class="max-w-8xl mx-auto px-4 py-8"&gt;
+        &lt;header class="flex items-center justify-between mb-8"&gt;
+            &lt;div class="flex items-center gap-4"&gt;
+                &lt;img src="https://ai-public.creatie.ai/gen_page/logo_placeholder.png" alt="Logo" class="h-10"&gt;
+                &lt;h1 class="text-2xl font-bold"&gt;Household Ledger&lt;/h1&gt;
+            &lt;/div&gt;
+            &lt;nav class="flex items-center gap-6"&gt;
+                &lt;a href="#" class="text-gray-300 hover:text-white"&gt;Dashboard&lt;/a&gt;
+                &lt;a href="#" class="text-gray-300 hover:text-white"&gt;Reports&lt;/a&gt;
+                &lt;a href="#" class="text-gray-300 hover:text-white"&gt;Settings&lt;/a&gt;
+            &lt;/nav&gt;
+        &lt;/header&gt;
+        &lt;div class="grid grid-cols-1 lg:grid-cols-3 gap-8"&gt;
+            &lt;div class="lg:col-span-2"&gt;
+                &lt;div class="bg-gray-800 rounded-lg p-6 mb-6"&gt;
+                    &lt;div class="flex items-center justify-between mb-6"&gt;
+                        &lt;div class="flex gap-4"&gt;
+                            &lt;select class="bg-gray-700 border-gray-600 text-white rounded-md !rounded-button"&gt;
+                                &lt;option&gt;2024&lt;/option&gt;
+                                &lt;option&gt;2023&lt;/option&gt;
+                            &lt;/select&gt;
+                            &lt;select class="bg-gray-700 border-gray-600 text-white rounded-md !rounded-button"&gt;
+                                &lt;option&gt;January&lt;/option&gt;
+                                &lt;option&gt;February&lt;/option&gt;
+                                &lt;option&gt;March&lt;/option&gt;
+                            &lt;/select&gt;
+                        &lt;/div&gt;
+                        &lt;div class="flex gap-2"&gt;
+                            &lt;button class="p-2 bg-gray-700 rounded-md hover:bg-gray-600 !rounded-button"&gt;
+                                &lt;i class="fas fa-chevron-left"&gt;&lt;/i&gt;
+                            &lt;/button&gt;
+                            &lt;button class="p-2 bg-gray-700 rounded-md hover:bg-gray-600 !rounded-button"&gt;
+                                &lt;i class="fas fa-chevron-right"&gt;&lt;/i&gt;
+                            &lt;/button&gt;
+                        &lt;/div&gt;
+                    &lt;/div&gt;
+                    &lt;div class="grid grid-cols-7 gap-4"&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Sun&lt;/div&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Mon&lt;/div&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Tue&lt;/div&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Wed&lt;/div&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Thu&lt;/div&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Fri&lt;/div&gt;
+                        &lt;div class="text-center text-gray-400"&gt;Sat&lt;/div&gt;
+                        &lt;div class="aspect-square bg-gray-700 rounded-lg p-3 cursor-pointer hover:bg-gray-600"&gt;
+                            &lt;div class="text-sm"&gt;1&lt;/div&gt;
+                            &lt;div class="text-custom font-medium mt-2"&gt;$125.50&lt;/div&gt;
+                        &lt;/div&gt;
+                        &lt;!-- Repeat for other days --&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;
+                &lt;div class="bg-gray-800 rounded-lg p-6"&gt;
+                    &lt;h3 class="text-xl font-semibold mb-4"&gt;January 1, 2024&lt;/h3&gt;
+                    &lt;div class="space-y-4"&gt;
+                        &lt;div class="flex items-center justify-between p-4 bg-gray-700 rounded-lg"&gt;
+                            &lt;div class="flex items-center gap-4"&gt;
+                                &lt;div class="w-10 h-10 bg-custom rounded-full flex items-center justify-center"&gt;
+                                    &lt;i class="fas fa-shopping-cart text-white"&gt;&lt;/i&gt;
+                                &lt;/div&gt;
+                                &lt;div&gt;
+                                    &lt;div class="font-medium"&gt;Groceries&lt;/div&gt;
+                                    &lt;div class="text-sm text-gray-400"&gt;Supermarket&lt;/div&gt;
+                                &lt;/div&gt;
+                            &lt;/div&gt;
+                            &lt;div class="text-lg font-medium"&gt;$75.20&lt;/div&gt;
+                        &lt;/div&gt;
+                        &lt;div class="flex items-center justify-between p-4 bg-gray-700 rounded-lg"&gt;
+                            &lt;div class="flex items-center gap-4"&gt;
+                                &lt;div class="w-10 h-10 bg-custom rounded-full flex items-center justify-center"&gt;
+                                    &lt;i class="fas fa-utensils text-white"&gt;&lt;/i&gt;
+                                &lt;/div&gt;
+                                &lt;div&gt;
+                                    &lt;div class="font-medium"&gt;Dining&lt;/div&gt;
+                                    &lt;div class="text-sm text-gray-400"&gt;Restaurant&lt;/div&gt;
+                                &lt;/div&gt;
+                            &lt;/div&gt;
+                            &lt;div class="text-lg font-medium"&gt;$50.30&lt;/div&gt;
+                        &lt;/div&gt;
+                    &lt;/div&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+            &lt;div class="lg:col-span-1"&gt;
+                &lt;div class="bg-gray-800 rounded-lg p-6 mb-6"&gt;
+                    &lt;h3 class="text-xl font-semibold mb-4"&gt;Monthly Overview&lt;/h3&gt;
+                    &lt;div id="monthlyChart" class="h-64"&gt;&lt;/div&gt;
+                &lt;/div&gt;
+                &lt;div class="bg-gray-800 rounded-lg p-6"&gt;
+                    &lt;h3 class="text-xl font-semibold mb-4"&gt;Category Breakdown&lt;/h3&gt;
+                    &lt;div id="categoryChart" class="h-64"&gt;&lt;/div&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+    &lt;button class="fixed bottom-8 right-8 bg-custom hover:bg-indigo-600 text-white p-4 rounded-full shadow-lg !rounded-button"&gt;
+        &lt;i class="fas fa-plus"&gt;&lt;/i&gt;
+    &lt;/button&gt;
+    &lt;script&gt;
+        const monthlyChart = echarts.init(document.getElementById('monthlyChart'));
+        const categoryChart = echarts.init(document.getElementById('categoryChart'));
+        monthlyChart.setOption({
+            animation: false,
+            tooltip: {
+                trigger: 'axis'
+            },
+            xAxis: {
+                type: 'category',
+                data: ['Week 1', 'Week 2', 'Week 3', 'Week 4'],
+                axisLabel: { color: '#fff' }
+            },
+            yAxis: {
+                type: 'value',
+                axisLabel: { color: '#fff' }
+            },
+            series: [{
+                data: [820, 932, 901, 934],
+                type: 'line',
+                smooth: true,
+                lineStyle: { color: '#6366f1' },
+                itemStyle: { color: '#6366f1' }
+            }]
+        });
+        categoryChart.setOption({
+            animation: false,
+            tooltip: {
+                trigger: 'item'
+            },
+            series: [{
+                type: 'pie',
+                radius: '70%',
+                data: [
+                    { value: 1048, name: 'Groceries' },
+                    { value: 735, name: 'Dining' },
+                    { value: 580, name: 'Transportation' },
+                    { value: 484, name: 'Entertainment' }
+                ],
+                emphasis: {
+                    itemStyle: {
+                        shadowBlur: 10,
+                        shadowOffsetX: 0,
+                        shadowColor: 'rgba(0, 0, 0, 0.5)'
+                    }
+                }
+            }]
+        });
+        window.addEventListener('resize', function() {
+            monthlyChart.resize();
+            categoryChart.resize();
+        });
+    &lt;/script&gt;
+&lt;/body&gt;
+&lt;/html&gt;
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료 모음</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="13">
+  <x:fonts count="15">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -789,6 +1125,11 @@
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
     <x:font>
@@ -852,11 +1193,53 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="13"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="13"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Arial"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -883,7 +1266,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="7">
+  <x:fills count="9">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -904,8 +1287,8 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="fffce5cd"/>
-        <x:bgColor rgb="fffce5cd"/>
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -916,12 +1299,24 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffffff"/>
+        <x:fgColor rgb="fffce5cd"/>
+        <x:bgColor rgb="fffce5cd"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fffce5cd"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fff4cccc"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="35">
+  <x:borders count="45">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -1008,9 +1403,23 @@
     </x:border>
     <x:border>
       <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
-      <x:right>
+      <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
@@ -1018,6 +1427,62 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -1122,6 +1587,20 @@
       <x:left style="thin">
         <x:color rgb="ff000000"/>
       </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color rgb="ff000000"/>
+      </x:left>
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
@@ -1140,34 +1619,6 @@
         <x:color rgb="ff000000"/>
       </x:right>
       <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top style="medium">
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
@@ -1248,34 +1699,6 @@
       <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
-        <x:color rgb="ff000000"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="medium">
-        <x:color auto="1"/>
-      </x:left>
       <x:right>
         <x:color auto="1"/>
       </x:right>
@@ -1307,6 +1730,34 @@
       <x:right style="thin">
         <x:color rgb="ff000000"/>
       </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="ff000000"/>
+      </x:right>
       <x:top style="thin">
         <x:color rgb="ff000000"/>
       </x:top>
@@ -1329,38 +1780,10 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right style="medium">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom>
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
       <x:left style="medium">
         <x:color auto="1"/>
       </x:left>
       <x:right style="thin">
-        <x:color auto="1"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color auto="1"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color auto="1"/>
-      </x:left>
-      <x:right style="medium">
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
@@ -1385,31 +1808,143 @@
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left>
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom style="medium">
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
     <x:border>
-      <x:left style="thin">
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
         <x:color auto="1"/>
       </x:left>
       <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ff000000"/>
+      </x:left>
+      <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
-        <x:color auto="1"/>
+      <x:top style="medium">
+        <x:color rgb="ffcccccc"/>
       </x:top>
       <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
         <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ff000000"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color rgb="ff000000"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color rgb="ffcccccc"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -1420,11 +1955,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="127">
+  <x:cellXfs count="162">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1452,18 +1987,18 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="top"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
@@ -1530,13 +2065,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1605,31 +2140,31 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1698,60 +2233,193 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="top"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1767,7 +2435,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1796,30 +2464,118 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -1834,292 +2590,266 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="bottom"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="top"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="top"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="bottom"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="7" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="7" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="표준" xfId="2" builtinId="0" iLevel="0"/>
+    <x:cellStyle name="표준" xfId="2"/>
   </x:cellStyles>
   <x:dxfs count="12">
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2127,6 +2857,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2209,6 +2940,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2243,6 +2975,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2287,6 +3020,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2330,6 +3064,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2414,6 +3149,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2434,6 +3170,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2464,6 +3201,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2516,7 +3254,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2544,8 +3282,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21212176" y="5886450"/>
-          <a:ext cx="2157806" cy="1266825"/>
+          <a:off x="21650326" y="5886450"/>
+          <a:ext cx="2162175" cy="1266825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2581,8 +3319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21212176" y="7229474"/>
-          <a:ext cx="2157806" cy="1943100"/>
+          <a:off x="21650326" y="7229474"/>
+          <a:ext cx="2162175" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2618,8 +3356,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21212176" y="12134852"/>
-          <a:ext cx="2157806" cy="1724025"/>
+          <a:off x="21650326" y="12134851"/>
+          <a:ext cx="2162175" cy="1724025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,8 +3393,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21212176" y="13858876"/>
-          <a:ext cx="2157806" cy="1762125"/>
+          <a:off x="21650326" y="13858875"/>
+          <a:ext cx="2162175" cy="1762125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2694,8 +3432,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21240750" y="15630525"/>
-          <a:ext cx="2129230" cy="1966912"/>
+          <a:off x="21678900" y="15630525"/>
+          <a:ext cx="2133600" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2707,24 +3445,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>914400</xdr:rowOff>
+      <xdr:rowOff>1962150</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="2" name="그림 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -2735,8 +3473,156 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5867400" y="400050"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="6935932" y="519545"/>
+          <a:ext cx="2926772" cy="1887681"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719454" y="5715000"/>
+          <a:ext cx="1688522" cy="1039090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719454" y="7940386"/>
+          <a:ext cx="3359727" cy="2554430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719455" y="12702886"/>
+          <a:ext cx="3359726" cy="2814205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6719454" y="17707842"/>
+          <a:ext cx="3359727" cy="2692976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2951,7 +3837,7 @@
   <x:dimension ref="A1:Z985"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L12" activeCellId="0" sqref="L12:L12"/>
+      <x:selection activeCell="M2" activeCellId="0" sqref="M2:M2"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2959,7 +3845,7 @@
     <x:col min="4" max="4" width="18.12890625" customWidth="1"/>
     <x:col min="9" max="9" width="16.62890625" customWidth="1"/>
     <x:col min="10" max="10" width="19.12890625" customWidth="1"/>
-    <x:col min="12" max="12" width="57.25" customWidth="1"/>
+    <x:col min="12" max="12" width="63.85546875" customWidth="1"/>
     <x:col min="13" max="13" width="106.37890625" customWidth="1"/>
     <x:col min="14" max="14" width="32.87890625" customWidth="1"/>
   </x:cols>
@@ -2982,11 +3868,11 @@
     </x:row>
     <x:row r="2" spans="1:14" ht="24.94999999999999928946">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="67" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C2" s="67"/>
-      <x:c r="D2" s="67"/>
+      <x:c r="B2" s="98" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C2" s="98"/>
+      <x:c r="D2" s="98"/>
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
       <x:c r="G2" s="1"/>
@@ -3016,107 +3902,107 @@
     </x:row>
     <x:row r="4" spans="1:14" ht="13.19999999999999928946">
       <x:c r="A4" s="1"/>
-      <x:c r="B4" s="93"/>
-      <x:c r="C4" s="94"/>
-      <x:c r="D4" s="94"/>
-      <x:c r="E4" s="95"/>
-      <x:c r="F4" s="95"/>
-      <x:c r="G4" s="95"/>
-      <x:c r="H4" s="95"/>
-      <x:c r="I4" s="95"/>
-      <x:c r="J4" s="94"/>
-      <x:c r="K4" s="93"/>
-      <x:c r="L4" s="96"/>
-      <x:c r="M4" s="94"/>
+      <x:c r="B4" s="66"/>
+      <x:c r="C4" s="67"/>
+      <x:c r="D4" s="67"/>
+      <x:c r="E4" s="68"/>
+      <x:c r="F4" s="68"/>
+      <x:c r="G4" s="68"/>
+      <x:c r="H4" s="68"/>
+      <x:c r="I4" s="68"/>
+      <x:c r="J4" s="67"/>
+      <x:c r="K4" s="66"/>
+      <x:c r="L4" s="69"/>
+      <x:c r="M4" s="67"/>
       <x:c r="N4" s="1"/>
     </x:row>
     <x:row r="5" spans="1:14" ht="13.19999999999999928946">
-      <x:c r="A5" s="95"/>
-      <x:c r="B5" s="97" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C5" s="98" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D5" s="99"/>
-      <x:c r="E5" s="99"/>
-      <x:c r="F5" s="99"/>
-      <x:c r="G5" s="99"/>
-      <x:c r="H5" s="100"/>
-      <x:c r="I5" s="101" t="s">
+      <x:c r="A5" s="68"/>
+      <x:c r="B5" s="112" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C5" s="101" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D5" s="102"/>
+      <x:c r="E5" s="102"/>
+      <x:c r="F5" s="102"/>
+      <x:c r="G5" s="102"/>
+      <x:c r="H5" s="103"/>
+      <x:c r="I5" s="104" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J5" s="106" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K5" s="104" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="L5" s="107" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M5" s="102"/>
+      <x:c r="N5" s="108"/>
+    </x:row>
+    <x:row r="6" spans="1:14" ht="13.19999999999999928946">
+      <x:c r="A6" s="68"/>
+      <x:c r="B6" s="113"/>
+      <x:c r="C6" s="40" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D6" s="40" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E6" s="41" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F6" s="41" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="G6" s="41" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="J5" s="102" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K5" s="101" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="L5" s="103" t="s">
+      <x:c r="H6" s="41" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="I6" s="105"/>
+      <x:c r="J6" s="105"/>
+      <x:c r="K6" s="105"/>
+      <x:c r="L6" s="42" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="M5" s="99"/>
-      <x:c r="N5" s="104"/>
-    </x:row>
-    <x:row r="6" spans="1:14" ht="13.19999999999999928946">
-      <x:c r="A6" s="95"/>
-      <x:c r="B6" s="105"/>
-      <x:c r="C6" s="40" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D6" s="40" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E6" s="41" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F6" s="41" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="G6" s="41" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="H6" s="41" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I6" s="70"/>
-      <x:c r="J6" s="70"/>
-      <x:c r="K6" s="70"/>
-      <x:c r="L6" s="42" t="s">
+      <x:c r="M6" s="40" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="N6" s="70" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:14" ht="13.19999999999999928946">
+      <x:c r="A7" s="68"/>
+      <x:c r="B7" s="109" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="M6" s="40" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="N6" s="106" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:14" ht="13.19999999999999928946">
-      <x:c r="A7" s="95"/>
-      <x:c r="B7" s="107" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C7" s="71"/>
-      <x:c r="D7" s="71"/>
-      <x:c r="E7" s="71"/>
-      <x:c r="F7" s="71"/>
-      <x:c r="G7" s="71"/>
-      <x:c r="H7" s="71"/>
-      <x:c r="I7" s="71"/>
-      <x:c r="J7" s="71"/>
-      <x:c r="K7" s="71"/>
-      <x:c r="L7" s="71"/>
-      <x:c r="M7" s="71"/>
-      <x:c r="N7" s="108"/>
+      <x:c r="C7" s="110"/>
+      <x:c r="D7" s="110"/>
+      <x:c r="E7" s="110"/>
+      <x:c r="F7" s="110"/>
+      <x:c r="G7" s="110"/>
+      <x:c r="H7" s="110"/>
+      <x:c r="I7" s="110"/>
+      <x:c r="J7" s="110"/>
+      <x:c r="K7" s="110"/>
+      <x:c r="L7" s="110"/>
+      <x:c r="M7" s="110"/>
+      <x:c r="N7" s="111"/>
     </x:row>
     <x:row r="8" spans="1:26" ht="13.19999999999999928946">
       <x:c r="A8" s="4"/>
-      <x:c r="B8" s="109">
+      <x:c r="B8" s="114">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C8" s="74" t="s">
-        <x:v>83</x:v>
+      <x:c r="C8" s="116" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D8" s="44"/>
       <x:c r="E8" s="44"/>
@@ -3124,19 +4010,19 @@
       <x:c r="G8" s="44"/>
       <x:c r="H8" s="44"/>
       <x:c r="I8" s="45" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J8" s="44" t="s">
-        <x:v>49</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K8" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L8" s="38" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M8" s="44"/>
-      <x:c r="N8" s="110"/>
+      <x:c r="N8" s="71"/>
       <x:c r="O8" s="13"/>
       <x:c r="P8" s="13"/>
       <x:c r="Q8" s="13"/>
@@ -3152,31 +4038,31 @@
     </x:row>
     <x:row r="9" spans="1:26" ht="105.40000000000000568434">
       <x:c r="A9" s="13"/>
-      <x:c r="B9" s="111"/>
-      <x:c r="C9" s="73"/>
-      <x:c r="D9" s="75" t="s">
-        <x:v>101</x:v>
+      <x:c r="B9" s="115"/>
+      <x:c r="C9" s="117"/>
+      <x:c r="D9" s="118" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="46"/>
       <x:c r="F9" s="46"/>
       <x:c r="G9" s="46"/>
       <x:c r="H9" s="46"/>
-      <x:c r="I9" s="72" t="s">
-        <x:v>40</x:v>
+      <x:c r="I9" s="119" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J9" s="46" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K9" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L9" s="39" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M9" s="126" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="N9" s="112"/>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="M9" s="82" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="N9" s="72"/>
       <x:c r="O9" s="13"/>
       <x:c r="P9" s="13"/>
       <x:c r="Q9" s="13"/>
@@ -3192,27 +4078,27 @@
     </x:row>
     <x:row r="10" spans="1:26" ht="39.54999999999999715783">
       <x:c r="A10" s="13"/>
-      <x:c r="B10" s="111"/>
-      <x:c r="C10" s="73"/>
-      <x:c r="D10" s="73"/>
+      <x:c r="B10" s="115"/>
+      <x:c r="C10" s="117"/>
+      <x:c r="D10" s="117"/>
       <x:c r="E10" s="46"/>
       <x:c r="F10" s="46"/>
       <x:c r="G10" s="46"/>
       <x:c r="H10" s="46"/>
-      <x:c r="I10" s="73"/>
+      <x:c r="I10" s="117"/>
       <x:c r="J10" s="46" t="s">
-        <x:v>104</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K10" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L10" s="39" t="s">
-        <x:v>15</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M10" s="39" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="N10" s="112"/>
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N10" s="72"/>
       <x:c r="O10" s="13"/>
       <x:c r="P10" s="13"/>
       <x:c r="Q10" s="13"/>
@@ -3228,27 +4114,27 @@
     </x:row>
     <x:row r="11" spans="1:26" ht="39.54999999999999715783">
       <x:c r="A11" s="13"/>
-      <x:c r="B11" s="105"/>
-      <x:c r="C11" s="70"/>
-      <x:c r="D11" s="70"/>
+      <x:c r="B11" s="113"/>
+      <x:c r="C11" s="105"/>
+      <x:c r="D11" s="105"/>
       <x:c r="E11" s="46"/>
       <x:c r="F11" s="46"/>
       <x:c r="G11" s="46"/>
       <x:c r="H11" s="46"/>
-      <x:c r="I11" s="70"/>
+      <x:c r="I11" s="105"/>
       <x:c r="J11" s="46" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="K11" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L11" s="39" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M11" s="39" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N11" s="112"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="N11" s="72"/>
       <x:c r="O11" s="13"/>
       <x:c r="P11" s="13"/>
       <x:c r="Q11" s="13"/>
@@ -3264,11 +4150,11 @@
     </x:row>
     <x:row r="12" spans="1:26" ht="52.70000000000000284217">
       <x:c r="A12" s="13"/>
-      <x:c r="B12" s="113">
+      <x:c r="B12" s="120">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C12" s="75" t="s">
-        <x:v>110</x:v>
+      <x:c r="C12" s="118" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="46"/>
       <x:c r="E12" s="46"/>
@@ -3276,21 +4162,21 @@
       <x:c r="G12" s="46"/>
       <x:c r="H12" s="46"/>
       <x:c r="I12" s="47" t="s">
-        <x:v>48</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J12" s="46" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K12" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L12" s="39" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M12" s="39" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="N12" s="112"/>
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="N12" s="72"/>
       <x:c r="O12" s="13"/>
       <x:c r="P12" s="13"/>
       <x:c r="Q12" s="13"/>
@@ -3306,31 +4192,31 @@
     </x:row>
     <x:row r="13" spans="1:26" ht="13.19999999999999928946">
       <x:c r="A13" s="13"/>
-      <x:c r="B13" s="111"/>
-      <x:c r="C13" s="73"/>
-      <x:c r="D13" s="75" t="s">
+      <x:c r="B13" s="115"/>
+      <x:c r="C13" s="117"/>
+      <x:c r="D13" s="118" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E13" s="46" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="E13" s="46" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="46"/>
       <x:c r="G13" s="46"/>
       <x:c r="H13" s="46"/>
       <x:c r="I13" s="47" t="s">
-        <x:v>51</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J13" s="46" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K13" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L13" s="39"/>
       <x:c r="M13" s="44" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="N13" s="112"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N13" s="72"/>
       <x:c r="O13" s="13"/>
       <x:c r="P13" s="13"/>
       <x:c r="Q13" s="13"/>
@@ -3346,31 +4232,31 @@
     </x:row>
     <x:row r="14" spans="1:26" ht="13.19999999999999928946">
       <x:c r="A14" s="13"/>
-      <x:c r="B14" s="111"/>
-      <x:c r="C14" s="73"/>
-      <x:c r="D14" s="73"/>
+      <x:c r="B14" s="115"/>
+      <x:c r="C14" s="117"/>
+      <x:c r="D14" s="117"/>
       <x:c r="E14" s="46" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F14" s="46"/>
       <x:c r="G14" s="46"/>
       <x:c r="H14" s="46"/>
       <x:c r="I14" s="47" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J14" s="46" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K14" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L14" s="39" t="s">
-        <x:v>19</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M14" s="44" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="N14" s="112"/>
+      <x:c r="N14" s="72"/>
       <x:c r="O14" s="13"/>
       <x:c r="P14" s="13"/>
       <x:c r="Q14" s="13"/>
@@ -3386,31 +4272,31 @@
     </x:row>
     <x:row r="15" spans="1:26" ht="13.19999999999999928946">
       <x:c r="A15" s="13"/>
-      <x:c r="B15" s="105"/>
-      <x:c r="C15" s="70"/>
-      <x:c r="D15" s="70"/>
+      <x:c r="B15" s="113"/>
+      <x:c r="C15" s="105"/>
+      <x:c r="D15" s="105"/>
       <x:c r="E15" s="46" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F15" s="46"/>
       <x:c r="G15" s="46"/>
       <x:c r="H15" s="46"/>
       <x:c r="I15" s="47" t="s">
-        <x:v>41</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J15" s="46" t="s">
-        <x:v>82</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K15" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L15" s="39" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M15" s="44" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="N15" s="112"/>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="N15" s="72"/>
       <x:c r="O15" s="13"/>
       <x:c r="P15" s="13"/>
       <x:c r="Q15" s="13"/>
@@ -3425,113 +4311,113 @@
       <x:c r="Z15" s="13"/>
     </x:row>
     <x:row r="16" spans="2:14" ht="26.35000000000000142109">
-      <x:c r="B16" s="113">
+      <x:c r="B16" s="120">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C16" s="75" t="s">
+      <x:c r="C16" s="118" t="s">
         <x:v>76</x:v>
       </x:c>
       <x:c r="D16" s="48" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E16" s="49"/>
       <x:c r="F16" s="49"/>
       <x:c r="G16" s="49"/>
       <x:c r="H16" s="49"/>
       <x:c r="I16" s="50" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J16" s="48" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="K16" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L16" s="37" t="s">
-        <x:v>1</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M16" s="48"/>
-      <x:c r="N16" s="114"/>
+      <x:c r="N16" s="73"/>
     </x:row>
     <x:row r="17" spans="2:14" ht="26.35000000000000142109">
-      <x:c r="B17" s="111"/>
-      <x:c r="C17" s="73"/>
-      <x:c r="D17" s="75" t="s">
-        <x:v>84</x:v>
+      <x:c r="B17" s="115"/>
+      <x:c r="C17" s="117"/>
+      <x:c r="D17" s="118" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E17" s="49"/>
       <x:c r="F17" s="49"/>
       <x:c r="G17" s="49"/>
       <x:c r="H17" s="49"/>
       <x:c r="I17" s="50" t="s">
-        <x:v>39</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J17" s="46" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="K17" s="45" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L17" s="37" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M17" s="48"/>
-      <x:c r="N17" s="114"/>
+      <x:c r="N17" s="73"/>
     </x:row>
     <x:row r="18" spans="2:14" ht="13.19999999999999928946">
-      <x:c r="B18" s="111"/>
-      <x:c r="C18" s="73"/>
-      <x:c r="D18" s="73"/>
-      <x:c r="E18" s="76"/>
-      <x:c r="F18" s="76"/>
-      <x:c r="G18" s="76"/>
-      <x:c r="H18" s="77"/>
-      <x:c r="I18" s="78" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J18" s="77" t="s">
-        <x:v>22</x:v>
+      <x:c r="B18" s="115"/>
+      <x:c r="C18" s="117"/>
+      <x:c r="D18" s="117"/>
+      <x:c r="E18" s="51"/>
+      <x:c r="F18" s="51"/>
+      <x:c r="G18" s="51"/>
+      <x:c r="H18" s="52"/>
+      <x:c r="I18" s="53" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J18" s="52" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K18" s="43" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L18" s="79" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="M18" s="80"/>
-      <x:c r="N18" s="115"/>
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L18" s="54" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M18" s="55"/>
+      <x:c r="N18" s="74"/>
     </x:row>
     <x:row r="19" spans="1:26" ht="105.40000000000000568434" customHeight="1">
       <x:c r="A19" s="13"/>
-      <x:c r="B19" s="116">
+      <x:c r="B19" s="123">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C19" s="81" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D19" s="82" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E19" s="82"/>
-      <x:c r="F19" s="82"/>
-      <x:c r="G19" s="82"/>
-      <x:c r="H19" s="82"/>
-      <x:c r="I19" s="83" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J19" s="82" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="K19" s="84" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L19" s="85" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="M19" s="86" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="N19" s="117"/>
+      <x:c r="C19" s="121" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D19" s="56" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E19" s="56"/>
+      <x:c r="F19" s="56"/>
+      <x:c r="G19" s="56"/>
+      <x:c r="H19" s="56"/>
+      <x:c r="I19" s="57" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J19" s="56" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="K19" s="58" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L19" s="59" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M19" s="60" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N19" s="75"/>
       <x:c r="O19" s="13"/>
       <x:c r="P19" s="13"/>
       <x:c r="Q19" s="13"/>
@@ -3547,33 +4433,33 @@
     </x:row>
     <x:row r="20" spans="1:26" ht="153" customHeight="1">
       <x:c r="A20" s="13"/>
-      <x:c r="B20" s="116"/>
-      <x:c r="C20" s="81"/>
-      <x:c r="D20" s="81" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E20" s="85" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F20" s="82"/>
-      <x:c r="G20" s="82"/>
-      <x:c r="H20" s="82"/>
-      <x:c r="I20" s="83" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J20" s="82" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="K20" s="84" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L20" s="85" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M20" s="87" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="N20" s="117"/>
+      <x:c r="B20" s="123"/>
+      <x:c r="C20" s="121"/>
+      <x:c r="D20" s="121" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E20" s="59" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F20" s="56"/>
+      <x:c r="G20" s="56"/>
+      <x:c r="H20" s="56"/>
+      <x:c r="I20" s="57" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J20" s="56" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="K20" s="58" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L20" s="59" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M20" s="61" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N20" s="75"/>
       <x:c r="O20" s="13"/>
       <x:c r="P20" s="13"/>
       <x:c r="Q20" s="13"/>
@@ -3589,31 +4475,31 @@
     </x:row>
     <x:row r="21" spans="1:26" ht="97.5" customHeight="1">
       <x:c r="A21" s="13"/>
-      <x:c r="B21" s="116"/>
-      <x:c r="C21" s="81"/>
-      <x:c r="D21" s="88"/>
-      <x:c r="E21" s="81" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="F21" s="85" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G21" s="82"/>
-      <x:c r="H21" s="82"/>
-      <x:c r="I21" s="83" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="J21" s="82" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="K21" s="84" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L21" s="89" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="M21" s="86"/>
-      <x:c r="N21" s="117"/>
+      <x:c r="B21" s="123"/>
+      <x:c r="C21" s="121"/>
+      <x:c r="D21" s="122"/>
+      <x:c r="E21" s="121" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="F21" s="59" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G21" s="56"/>
+      <x:c r="H21" s="56"/>
+      <x:c r="I21" s="57" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J21" s="56" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="K21" s="58" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L21" s="62" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="M21" s="60"/>
+      <x:c r="N21" s="75"/>
       <x:c r="O21" s="13"/>
       <x:c r="P21" s="13"/>
       <x:c r="Q21" s="13"/>
@@ -3629,29 +4515,29 @@
     </x:row>
     <x:row r="22" spans="1:26" ht="135.75" customHeight="1">
       <x:c r="A22" s="13"/>
-      <x:c r="B22" s="116"/>
-      <x:c r="C22" s="81"/>
-      <x:c r="D22" s="88"/>
-      <x:c r="E22" s="88"/>
-      <x:c r="F22" s="85" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="G22" s="82"/>
-      <x:c r="H22" s="82"/>
-      <x:c r="I22" s="83" t="s">
+      <x:c r="B22" s="123"/>
+      <x:c r="C22" s="121"/>
+      <x:c r="D22" s="122"/>
+      <x:c r="E22" s="122"/>
+      <x:c r="F22" s="59" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="J22" s="82" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="K22" s="84" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L22" s="89" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M22" s="86"/>
-      <x:c r="N22" s="117"/>
+      <x:c r="G22" s="56"/>
+      <x:c r="H22" s="56"/>
+      <x:c r="I22" s="57" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J22" s="56" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="K22" s="58" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L22" s="62" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M22" s="60"/>
+      <x:c r="N22" s="75"/>
       <x:c r="O22" s="13"/>
       <x:c r="P22" s="13"/>
       <x:c r="Q22" s="13"/>
@@ -3667,29 +4553,29 @@
     </x:row>
     <x:row r="23" spans="1:26" ht="135.75" customHeight="1">
       <x:c r="A23" s="13"/>
-      <x:c r="B23" s="116"/>
-      <x:c r="C23" s="81"/>
-      <x:c r="D23" s="82" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E23" s="82"/>
-      <x:c r="F23" s="82"/>
-      <x:c r="G23" s="82"/>
-      <x:c r="H23" s="82"/>
-      <x:c r="I23" s="83" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J23" s="82" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="K23" s="90"/>
-      <x:c r="L23" s="89" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="M23" s="91" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="N23" s="117"/>
+      <x:c r="B23" s="123"/>
+      <x:c r="C23" s="121"/>
+      <x:c r="D23" s="56" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="E23" s="56"/>
+      <x:c r="F23" s="56"/>
+      <x:c r="G23" s="56"/>
+      <x:c r="H23" s="56"/>
+      <x:c r="I23" s="57" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J23" s="56" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="K23" s="63"/>
+      <x:c r="L23" s="62" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="M23" s="64" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="N23" s="75"/>
       <x:c r="O23" s="13"/>
       <x:c r="P23" s="13"/>
       <x:c r="Q23" s="13"/>
@@ -3705,31 +4591,31 @@
     </x:row>
     <x:row r="24" spans="1:26" ht="138.75" customHeight="1">
       <x:c r="A24" s="13"/>
-      <x:c r="B24" s="116"/>
-      <x:c r="C24" s="81"/>
-      <x:c r="D24" s="82" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E24" s="82"/>
-      <x:c r="F24" s="82"/>
-      <x:c r="G24" s="82"/>
-      <x:c r="H24" s="82"/>
-      <x:c r="I24" s="83" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="J24" s="82" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="K24" s="84" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L24" s="89" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="M24" s="92" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="N24" s="118"/>
+      <x:c r="B24" s="123"/>
+      <x:c r="C24" s="121"/>
+      <x:c r="D24" s="56" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E24" s="56"/>
+      <x:c r="F24" s="56"/>
+      <x:c r="G24" s="56"/>
+      <x:c r="H24" s="56"/>
+      <x:c r="I24" s="57" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J24" s="56" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K24" s="58" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L24" s="62" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="M24" s="65" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N24" s="76"/>
       <x:c r="O24" s="13"/>
       <x:c r="P24" s="13"/>
       <x:c r="Q24" s="13"/>
@@ -3744,29 +4630,29 @@
       <x:c r="Z24" s="13"/>
     </x:row>
     <x:row r="25" spans="2:14" ht="156.75" customHeight="1">
-      <x:c r="B25" s="119"/>
-      <x:c r="C25" s="120"/>
-      <x:c r="D25" s="121" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E25" s="122"/>
-      <x:c r="F25" s="122"/>
-      <x:c r="G25" s="122"/>
-      <x:c r="H25" s="122"/>
-      <x:c r="I25" s="123" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="J25" s="121" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="K25" s="124" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="L25" s="121" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="M25" s="122"/>
-      <x:c r="N25" s="125"/>
+      <x:c r="B25" s="124"/>
+      <x:c r="C25" s="125"/>
+      <x:c r="D25" s="77" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E25" s="78"/>
+      <x:c r="F25" s="78"/>
+      <x:c r="G25" s="78"/>
+      <x:c r="H25" s="78"/>
+      <x:c r="I25" s="79" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J25" s="77" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K25" s="80" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L25" s="77" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M25" s="78"/>
+      <x:c r="N25" s="81"/>
     </x:row>
     <x:row r="26" spans="3:3" ht="13.19999999999999928946">
       <x:c r="C26" s="21"/>
@@ -3784,94 +4670,118 @@
       <x:c r="L29" s="23"/>
       <x:c r="M29" s="22"/>
     </x:row>
-    <x:row r="30" spans="3:12" ht="13.19999999999999928946">
-      <x:c r="C30" s="21"/>
-      <x:c r="D30" s="21"/>
+    <x:row r="30" spans="2:12" ht="13.55000000000000071054">
+      <x:c r="B30" s="146" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C30" s="144"/>
+      <x:c r="D30" s="144"/>
+      <x:c r="E30" s="144"/>
+      <x:c r="F30" s="144"/>
+      <x:c r="G30" s="144"/>
+      <x:c r="H30" s="144"/>
+      <x:c r="I30" s="147"/>
       <x:c r="J30" s="22"/>
       <x:c r="L30" s="23"/>
     </x:row>
-    <x:row r="31" spans="3:13" ht="13.19999999999999928946">
-      <x:c r="C31" s="21"/>
-      <x:c r="D31" s="21"/>
+    <x:row r="31" spans="2:13" ht="104.25" customHeight="1">
+      <x:c r="B31" s="148" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C31" s="149"/>
+      <x:c r="D31" s="149"/>
+      <x:c r="E31" s="149"/>
+      <x:c r="F31" s="149"/>
+      <x:c r="G31" s="149"/>
+      <x:c r="H31" s="149"/>
+      <x:c r="I31" s="150"/>
       <x:c r="J31" s="22"/>
       <x:c r="L31" s="13"/>
       <x:c r="M31" s="22"/>
     </x:row>
     <x:row r="32" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B32" s="24" t="s">
-        <x:v>103</x:v>
-      </x:c>
+      <x:c r="B32" s="24"/>
       <x:c r="C32" s="21"/>
       <x:c r="D32" s="21"/>
       <x:c r="I32" s="24"/>
       <x:c r="J32" s="22"/>
-      <x:c r="L32" s="24" t="s">
-        <x:v>59</x:v>
-      </x:c>
+      <x:c r="L32" s="24"/>
       <x:c r="M32" s="23"/>
     </x:row>
-    <x:row r="33" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B33" s="24" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C33" s="21"/>
-      <x:c r="D33" s="21"/>
+    <x:row r="33" spans="2:13" ht="13.55000000000000071054">
+      <x:c r="B33" s="151" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C33" s="152" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D33" s="152" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E33" s="153" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="I33" s="25"/>
       <x:c r="J33" s="26"/>
       <x:c r="L33" s="13"/>
       <x:c r="M33" s="22"/>
     </x:row>
-    <x:row r="34" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B34" s="24" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C34" s="21"/>
-      <x:c r="D34" s="21"/>
+    <x:row r="34" spans="2:13" ht="13.94999999999999928946">
+      <x:c r="B34" s="154" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C34" s="155" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="D34" s="155">
+        <x:v>3.5</x:v>
+      </x:c>
+      <x:c r="E34" s="156"/>
       <x:c r="J34" s="22"/>
-      <x:c r="L34" s="27" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="L34" s="27"/>
       <x:c r="M34" s="22"/>
     </x:row>
     <x:row r="35" spans="1:13" ht="13.19999999999999928946">
-      <x:c r="A35" s="24" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="B35" s="24" t="s">
-        <x:v>10</x:v>
-      </x:c>
+      <x:c r="A35" s="24"/>
+      <x:c r="B35" s="24"/>
       <x:c r="C35" s="21"/>
       <x:c r="D35" s="21"/>
       <x:c r="J35" s="22"/>
-      <x:c r="L35" s="23" t="s">
-        <x:v>9</x:v>
-      </x:c>
+      <x:c r="L35" s="23"/>
       <x:c r="M35" s="22"/>
     </x:row>
-    <x:row r="36" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B36" s="24" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C36" s="21"/>
-      <x:c r="D36" s="21"/>
+    <x:row r="36" spans="2:13" ht="13.55000000000000071054">
+      <x:c r="B36" s="157" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C36" s="158"/>
+      <x:c r="D36" s="158"/>
+      <x:c r="E36" s="158"/>
+      <x:c r="F36" s="158"/>
+      <x:c r="G36" s="158"/>
+      <x:c r="H36" s="158"/>
+      <x:c r="I36" s="159"/>
       <x:c r="J36" s="22"/>
       <x:c r="L36" s="23"/>
       <x:c r="M36" s="22"/>
     </x:row>
-    <x:row r="37" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B37" s="24" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C37" s="21"/>
-      <x:c r="D37" s="21"/>
+    <x:row r="37" spans="2:13" ht="63.75" customHeight="1">
+      <x:c r="B37" s="160" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C37" s="145"/>
+      <x:c r="D37" s="145"/>
+      <x:c r="E37" s="145"/>
+      <x:c r="F37" s="145"/>
+      <x:c r="G37" s="145"/>
+      <x:c r="H37" s="145"/>
+      <x:c r="I37" s="161"/>
       <x:c r="J37" s="22"/>
       <x:c r="L37" s="28"/>
       <x:c r="M37" s="22"/>
     </x:row>
     <x:row r="38" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B38" s="24" t="s">
-        <x:v>5</x:v>
-      </x:c>
+      <x:c r="B38" s="24"/>
       <x:c r="C38" s="21"/>
       <x:c r="D38" s="21"/>
       <x:c r="J38" s="22"/>
@@ -3879,9 +4789,7 @@
       <x:c r="M38" s="22"/>
     </x:row>
     <x:row r="39" spans="2:13" ht="13.19999999999999928946">
-      <x:c r="B39" s="24" t="s">
-        <x:v>36</x:v>
-      </x:c>
+      <x:c r="B39" s="24"/>
       <x:c r="C39" s="21"/>
       <x:c r="D39" s="21"/>
       <x:c r="J39" s="22"/>
@@ -10511,7 +11419,7 @@
       <x:c r="M985" s="21"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="22">
+  <x:mergeCells count="26">
     <x:mergeCell ref="B2:D2"/>
     <x:mergeCell ref="C5:H5"/>
     <x:mergeCell ref="I5:I6"/>
@@ -10534,14 +11442,18 @@
     <x:mergeCell ref="E21:E22"/>
     <x:mergeCell ref="B19:B25"/>
     <x:mergeCell ref="C19:C25"/>
+    <x:mergeCell ref="B30:I30"/>
+    <x:mergeCell ref="B31:I31"/>
+    <x:mergeCell ref="B36:I36"/>
+    <x:mergeCell ref="B37:I37"/>
   </x:mergeCells>
   <x:hyperlinks>
-    <x:hyperlink ref="L34:L34" r:id="rId1"/>
-    <x:hyperlink ref="M20:M20" r:id="rId2"/>
-    <x:hyperlink ref="M23:M23" r:id="rId3"/>
-    <x:hyperlink ref="M24:M24" r:id="rId4"/>
+    <x:hyperlink ref="M20:M20" r:id="rId1"/>
+    <x:hyperlink ref="M23:M23" r:id="rId2"/>
+    <x:hyperlink ref="M24:M24" r:id="rId3"/>
+    <x:hyperlink ref="B37:I37" r:id="rId4" tooltip="https://echarts.apache.org/examples/en/editor.html?c=pictorialBar-forest"/>
   </x:hyperlinks>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:drawing r:id="rId5"/>
 </x:worksheet>
@@ -10584,11 +11496,11 @@
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="67" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C2" s="67"/>
-      <x:c r="D2" s="67"/>
+      <x:c r="B2" s="98" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C2" s="98"/>
+      <x:c r="D2" s="98"/>
       <x:c r="E2" s="1"/>
       <x:c r="F2" s="1"/>
       <x:c r="G2" s="1"/>
@@ -10634,89 +11546,89 @@
     </x:row>
     <x:row r="5" spans="1:14">
       <x:c r="A5" s="8"/>
-      <x:c r="B5" s="61" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C5" s="68" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D5" s="52"/>
-      <x:c r="E5" s="52"/>
-      <x:c r="F5" s="52"/>
-      <x:c r="G5" s="52"/>
-      <x:c r="H5" s="53"/>
-      <x:c r="I5" s="61" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="J5" s="61" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K5" s="61" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="L5" s="68" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="M5" s="53"/>
+      <x:c r="B5" s="92" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C5" s="99" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D5" s="83"/>
+      <x:c r="E5" s="83"/>
+      <x:c r="F5" s="83"/>
+      <x:c r="G5" s="83"/>
+      <x:c r="H5" s="84"/>
+      <x:c r="I5" s="92" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="J5" s="92" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K5" s="92" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="L5" s="99" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M5" s="84"/>
       <x:c r="N5" s="29"/>
     </x:row>
     <x:row r="6" spans="1:14">
       <x:c r="A6" s="8"/>
-      <x:c r="B6" s="62"/>
+      <x:c r="B6" s="93"/>
       <x:c r="C6" s="10" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F6" s="10" t="s">
-        <x:v>100</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G6" s="10" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H6" s="10" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="H6" s="10" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I6" s="62"/>
-      <x:c r="J6" s="62"/>
-      <x:c r="K6" s="62"/>
+      <x:c r="I6" s="93"/>
+      <x:c r="J6" s="93"/>
+      <x:c r="K6" s="93"/>
       <x:c r="L6" s="10" t="s">
-        <x:v>85</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M6" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N6" s="29"/>
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="8"/>
-      <x:c r="B7" s="69" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C7" s="55"/>
-      <x:c r="D7" s="55"/>
-      <x:c r="E7" s="55"/>
-      <x:c r="F7" s="55"/>
-      <x:c r="G7" s="55"/>
-      <x:c r="H7" s="55"/>
-      <x:c r="I7" s="55"/>
-      <x:c r="J7" s="55"/>
-      <x:c r="K7" s="55"/>
-      <x:c r="L7" s="55"/>
-      <x:c r="M7" s="56"/>
+      <x:c r="B7" s="100" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C7" s="86"/>
+      <x:c r="D7" s="86"/>
+      <x:c r="E7" s="86"/>
+      <x:c r="F7" s="86"/>
+      <x:c r="G7" s="86"/>
+      <x:c r="H7" s="86"/>
+      <x:c r="I7" s="86"/>
+      <x:c r="J7" s="86"/>
+      <x:c r="K7" s="86"/>
+      <x:c r="L7" s="86"/>
+      <x:c r="M7" s="87"/>
       <x:c r="N7" s="30"/>
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="1"/>
-      <x:c r="B8" s="63">
+      <x:c r="B8" s="94">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C8" s="63" t="s">
-        <x:v>83</x:v>
+      <x:c r="C8" s="94" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D8" s="31"/>
       <x:c r="E8" s="32"/>
@@ -10724,96 +11636,96 @@
       <x:c r="G8" s="32"/>
       <x:c r="H8" s="32"/>
       <x:c r="I8" s="11" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J8" s="12" t="s">
-        <x:v>49</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K8" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L8" s="33" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M8" s="33"/>
       <x:c r="N8" s="1"/>
     </x:row>
     <x:row r="9" spans="2:13">
-      <x:c r="B9" s="64"/>
-      <x:c r="C9" s="64"/>
-      <x:c r="D9" s="65" t="s">
-        <x:v>101</x:v>
+      <x:c r="B9" s="95"/>
+      <x:c r="C9" s="95"/>
+      <x:c r="D9" s="96" t="s">
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E9" s="34"/>
       <x:c r="F9" s="34"/>
       <x:c r="G9" s="34"/>
       <x:c r="H9" s="34"/>
-      <x:c r="I9" s="63" t="s">
-        <x:v>40</x:v>
+      <x:c r="I9" s="94" t="s">
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J9" s="14" t="s">
-        <x:v>88</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K9" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L9" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="M9" s="20" t="s">
-        <x:v>107</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:13">
-      <x:c r="B10" s="64"/>
-      <x:c r="C10" s="64"/>
-      <x:c r="D10" s="64"/>
+      <x:c r="B10" s="95"/>
+      <x:c r="C10" s="95"/>
+      <x:c r="D10" s="95"/>
       <x:c r="E10" s="34"/>
       <x:c r="F10" s="34"/>
       <x:c r="G10" s="34"/>
       <x:c r="H10" s="34"/>
-      <x:c r="I10" s="64"/>
+      <x:c r="I10" s="95"/>
       <x:c r="J10" s="14" t="s">
-        <x:v>104</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="K10" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L10" s="17" t="s">
-        <x:v>15</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="M10" s="17" t="s">
-        <x:v>4</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:13">
-      <x:c r="B11" s="62"/>
-      <x:c r="C11" s="62"/>
-      <x:c r="D11" s="62"/>
+      <x:c r="B11" s="93"/>
+      <x:c r="C11" s="93"/>
+      <x:c r="D11" s="93"/>
       <x:c r="E11" s="34"/>
       <x:c r="F11" s="34"/>
       <x:c r="G11" s="34"/>
       <x:c r="H11" s="34"/>
-      <x:c r="I11" s="62"/>
+      <x:c r="I11" s="93"/>
       <x:c r="J11" s="14" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="K11" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L11" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M11" s="17" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:13">
-      <x:c r="B12" s="66">
+      <x:c r="B12" s="97">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C12" s="65" t="s">
-        <x:v>110</x:v>
+      <x:c r="C12" s="96" t="s">
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="18"/>
       <x:c r="E12" s="15"/>
@@ -10821,97 +11733,97 @@
       <x:c r="G12" s="15"/>
       <x:c r="H12" s="15"/>
       <x:c r="I12" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J12" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="K12" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L12" s="17" t="s">
-        <x:v>24</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="M12" s="17" t="s">
-        <x:v>68</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:13">
-      <x:c r="B13" s="64"/>
-      <x:c r="C13" s="64"/>
-      <x:c r="D13" s="65" t="s">
+      <x:c r="B13" s="95"/>
+      <x:c r="C13" s="95"/>
+      <x:c r="D13" s="96" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E13" s="19" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="E13" s="19" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="F13" s="15"/>
       <x:c r="G13" s="15"/>
       <x:c r="H13" s="15"/>
       <x:c r="I13" s="16" t="s">
-        <x:v>51</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J13" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="K13" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L13" s="21"/>
       <x:c r="M13" s="20" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:13">
-      <x:c r="B14" s="64"/>
-      <x:c r="C14" s="64"/>
-      <x:c r="D14" s="64"/>
+      <x:c r="B14" s="95"/>
+      <x:c r="C14" s="95"/>
+      <x:c r="D14" s="95"/>
       <x:c r="E14" s="19" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F14" s="15"/>
       <x:c r="G14" s="15"/>
       <x:c r="H14" s="15"/>
       <x:c r="I14" s="16" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J14" s="19" t="s">
-        <x:v>99</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="K14" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L14" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M14" s="20" t="s">
         <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:13">
-      <x:c r="B15" s="62"/>
-      <x:c r="C15" s="62"/>
-      <x:c r="D15" s="62"/>
+      <x:c r="B15" s="93"/>
+      <x:c r="C15" s="93"/>
+      <x:c r="D15" s="93"/>
       <x:c r="E15" s="19" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F15" s="15"/>
       <x:c r="G15" s="15"/>
       <x:c r="H15" s="15"/>
       <x:c r="I15" s="16" t="s">
-        <x:v>41</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J15" s="19" t="s">
-        <x:v>82</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K15" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L15" s="17" t="s">
-        <x:v>23</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M15" s="20" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:13">
@@ -10919,26 +11831,26 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="16" t="s">
-        <x:v>87</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D16" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E16" s="34"/>
       <x:c r="F16" s="34"/>
       <x:c r="G16" s="34"/>
       <x:c r="H16" s="34"/>
       <x:c r="I16" s="16" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J16" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="K16" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L16" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M16" s="17"/>
     </x:row>
@@ -10946,23 +11858,23 @@
       <x:c r="B17" s="18"/>
       <x:c r="C17" s="18"/>
       <x:c r="D17" s="35" t="s">
-        <x:v>114</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E17" s="15"/>
       <x:c r="F17" s="15"/>
       <x:c r="G17" s="15"/>
       <x:c r="H17" s="15"/>
       <x:c r="I17" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J17" s="19" t="s">
-        <x:v>86</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="K17" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L17" s="35" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="M17" s="17"/>
     </x:row>
@@ -10970,18 +11882,18 @@
       <x:c r="B18" s="18"/>
       <x:c r="C18" s="18"/>
       <x:c r="D18" s="35" t="s">
-        <x:v>91</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E18" s="15"/>
       <x:c r="F18" s="15"/>
       <x:c r="G18" s="15"/>
       <x:c r="H18" s="15"/>
       <x:c r="I18" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J18" s="15"/>
       <x:c r="K18" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L18" s="18"/>
       <x:c r="M18" s="17"/>
@@ -10990,18 +11902,18 @@
       <x:c r="B19" s="18"/>
       <x:c r="C19" s="18"/>
       <x:c r="D19" s="35" t="s">
-        <x:v>66</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E19" s="15"/>
       <x:c r="F19" s="15"/>
       <x:c r="G19" s="15"/>
       <x:c r="H19" s="15"/>
       <x:c r="I19" s="16" t="s">
-        <x:v>62</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J19" s="15"/>
       <x:c r="K19" s="11" t="s">
-        <x:v>89</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L19" s="18"/>
       <x:c r="M19" s="17"/>
@@ -13913,7 +14825,7 @@
     <x:mergeCell ref="L5:M5"/>
     <x:mergeCell ref="B7:M7"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -13923,64 +14835,314 @@
   <x:sheetPr codeName="Sheet3">
     <x:outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:I4"/>
+  <x:dimension ref="A2:M24"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="O24" activeCellId="0" sqref="O24:O24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
   <x:sheetData>
-    <x:row r="2" spans="1:9">
-      <x:c r="A2" s="51" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B2" s="52"/>
-      <x:c r="C2" s="52"/>
-      <x:c r="D2" s="52"/>
-      <x:c r="E2" s="52"/>
-      <x:c r="F2" s="52"/>
-      <x:c r="G2" s="53"/>
-      <x:c r="H2" s="51" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="I2" s="53"/>
-    </x:row>
-    <x:row r="3" spans="1:9" ht="168.75" customHeight="1">
-      <x:c r="A3" s="54" t="s">
+    <x:row r="2" spans="1:12" s="126" customFormat="1" ht="19.25" customHeight="1">
+      <x:c r="A2" s="127"/>
+      <x:c r="B2" s="130" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C2" s="131"/>
+      <x:c r="D2" s="131"/>
+      <x:c r="E2" s="131"/>
+      <x:c r="F2" s="131"/>
+      <x:c r="G2" s="131"/>
+      <x:c r="H2" s="131"/>
+      <x:c r="I2" s="132" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J2" s="133"/>
+      <x:c r="K2" s="134"/>
+      <x:c r="L2" s="134"/>
+    </x:row>
+    <x:row r="3" spans="1:12" s="126" customFormat="1" ht="168.75" customHeight="1">
+      <x:c r="A3" s="2"/>
+      <x:c r="B3" s="131" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C3" s="131"/>
+      <x:c r="D3" s="131"/>
+      <x:c r="E3" s="131"/>
+      <x:c r="F3" s="131"/>
+      <x:c r="G3" s="131"/>
+      <x:c r="H3" s="131"/>
+      <x:c r="I3" s="135"/>
+      <x:c r="J3" s="135"/>
+      <x:c r="K3" s="136"/>
+      <x:c r="L3" s="136"/>
+    </x:row>
+    <x:row r="4" spans="1:13" s="126" customFormat="1" ht="196.5" customHeight="1">
+      <x:c r="A4" s="2"/>
+      <x:c r="B4" s="131"/>
+      <x:c r="C4" s="131"/>
+      <x:c r="D4" s="131"/>
+      <x:c r="E4" s="131"/>
+      <x:c r="F4" s="131"/>
+      <x:c r="G4" s="131"/>
+      <x:c r="H4" s="131"/>
+      <x:c r="I4" s="135" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="J4" s="135"/>
+      <x:c r="K4" s="136"/>
+      <x:c r="L4" s="136"/>
+      <x:c r="M4" s="2"/>
+    </x:row>
+    <x:row r="5" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A5" s="129"/>
+    </x:row>
+    <x:row r="6" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A6" s="129"/>
+    </x:row>
+    <x:row r="7" spans="1:10" s="126" customFormat="1" ht="19.25">
+      <x:c r="A7" s="127"/>
+      <x:c r="B7" s="128" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C7" s="83"/>
+      <x:c r="D7" s="83"/>
+      <x:c r="E7" s="83"/>
+      <x:c r="F7" s="83"/>
+      <x:c r="G7" s="83"/>
+      <x:c r="H7" s="84"/>
+      <x:c r="I7" s="128" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J7" s="84"/>
+    </x:row>
+    <x:row r="8" spans="1:10" s="126" customFormat="1" ht="92.25" customHeight="1">
+      <x:c r="A8" s="2"/>
+      <x:c r="B8" s="85" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C8" s="86"/>
+      <x:c r="D8" s="86"/>
+      <x:c r="E8" s="86"/>
+      <x:c r="F8" s="86"/>
+      <x:c r="G8" s="86"/>
+      <x:c r="H8" s="87"/>
+      <x:c r="I8" s="91"/>
+      <x:c r="J8" s="84"/>
+    </x:row>
+    <x:row r="9" spans="1:10" s="126" customFormat="1" ht="37.5" customHeight="1">
+      <x:c r="A9" s="2"/>
+      <x:c r="B9" s="88"/>
+      <x:c r="C9" s="89"/>
+      <x:c r="D9" s="89"/>
+      <x:c r="E9" s="89"/>
+      <x:c r="F9" s="89"/>
+      <x:c r="G9" s="89"/>
+      <x:c r="H9" s="90"/>
+      <x:c r="I9" s="91" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J9" s="84"/>
+    </x:row>
+    <x:row r="10" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A10" s="129"/>
+    </x:row>
+    <x:row r="11" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A11" s="129"/>
+    </x:row>
+    <x:row r="12" spans="1:12" s="126" customFormat="1" ht="19.25" customHeight="1">
+      <x:c r="A12" s="127"/>
+      <x:c r="B12" s="130" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C12" s="131"/>
+      <x:c r="D12" s="131"/>
+      <x:c r="E12" s="131"/>
+      <x:c r="F12" s="131"/>
+      <x:c r="G12" s="131"/>
+      <x:c r="H12" s="131"/>
+      <x:c r="I12" s="132" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J12" s="133"/>
+      <x:c r="K12" s="134"/>
+      <x:c r="L12" s="134"/>
+    </x:row>
+    <x:row r="13" spans="1:12" s="126" customFormat="1" ht="201.75" customHeight="1">
+      <x:c r="A13" s="2"/>
+      <x:c r="B13" s="131" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="B3" s="55"/>
-      <x:c r="C3" s="55"/>
-      <x:c r="D3" s="55"/>
-      <x:c r="E3" s="55"/>
-      <x:c r="F3" s="55"/>
-      <x:c r="G3" s="56"/>
-      <x:c r="H3" s="60"/>
-      <x:c r="I3" s="53"/>
-    </x:row>
-    <x:row r="4" spans="1:9" ht="196.5" customHeight="1">
-      <x:c r="A4" s="57"/>
-      <x:c r="B4" s="58"/>
-      <x:c r="C4" s="58"/>
-      <x:c r="D4" s="58"/>
-      <x:c r="E4" s="58"/>
-      <x:c r="F4" s="58"/>
-      <x:c r="G4" s="59"/>
-      <x:c r="H4" s="60" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I4" s="53"/>
+      <x:c r="C13" s="131"/>
+      <x:c r="D13" s="131"/>
+      <x:c r="E13" s="131"/>
+      <x:c r="F13" s="131"/>
+      <x:c r="G13" s="131"/>
+      <x:c r="H13" s="131"/>
+      <x:c r="I13" s="137" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J13" s="122"/>
+      <x:c r="K13" s="137"/>
+      <x:c r="L13" s="137"/>
+    </x:row>
+    <x:row r="14" spans="1:12" s="126" customFormat="1" ht="125.25" customHeight="1">
+      <x:c r="A14" s="2"/>
+      <x:c r="B14" s="131"/>
+      <x:c r="C14" s="131"/>
+      <x:c r="D14" s="131"/>
+      <x:c r="E14" s="131"/>
+      <x:c r="F14" s="131"/>
+      <x:c r="G14" s="131"/>
+      <x:c r="H14" s="131"/>
+      <x:c r="I14" s="135" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="135"/>
+      <x:c r="K14" s="136"/>
+      <x:c r="L14" s="136"/>
+    </x:row>
+    <x:row r="15" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A15" s="129"/>
+    </x:row>
+    <x:row r="16" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A16" s="129"/>
+    </x:row>
+    <x:row r="17" spans="1:12" s="126" customFormat="1" ht="19.25" customHeight="1">
+      <x:c r="A17" s="127"/>
+      <x:c r="B17" s="130" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C17" s="131"/>
+      <x:c r="D17" s="131"/>
+      <x:c r="E17" s="131"/>
+      <x:c r="F17" s="131"/>
+      <x:c r="G17" s="131"/>
+      <x:c r="H17" s="131"/>
+      <x:c r="I17" s="132" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J17" s="133"/>
+      <x:c r="K17" s="134"/>
+      <x:c r="L17" s="134"/>
+    </x:row>
+    <x:row r="18" spans="1:12" s="126" customFormat="1" ht="222.75" customHeight="1">
+      <x:c r="A18" s="2"/>
+      <x:c r="B18" s="131" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C18" s="131"/>
+      <x:c r="D18" s="131"/>
+      <x:c r="E18" s="131"/>
+      <x:c r="F18" s="131"/>
+      <x:c r="G18" s="131"/>
+      <x:c r="H18" s="131"/>
+      <x:c r="I18" s="135"/>
+      <x:c r="J18" s="135"/>
+      <x:c r="K18" s="136"/>
+      <x:c r="L18" s="136"/>
+    </x:row>
+    <x:row r="19" spans="1:12" s="126" customFormat="1" ht="125.25" customHeight="1">
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="131"/>
+      <x:c r="C19" s="131"/>
+      <x:c r="D19" s="131"/>
+      <x:c r="E19" s="131"/>
+      <x:c r="F19" s="131"/>
+      <x:c r="G19" s="131"/>
+      <x:c r="H19" s="131"/>
+      <x:c r="I19" s="135" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="135"/>
+      <x:c r="K19" s="136"/>
+      <x:c r="L19" s="136"/>
+    </x:row>
+    <x:row r="20" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A20" s="129"/>
+    </x:row>
+    <x:row r="21" spans="1:1" s="126" customFormat="1" ht="13.19999999999999928946">
+      <x:c r="A21" s="129"/>
+    </x:row>
+    <x:row r="22" spans="1:12" s="126" customFormat="1" ht="19.25" customHeight="1">
+      <x:c r="A22" s="129"/>
+      <x:c r="B22" s="138" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C22" s="139"/>
+      <x:c r="D22" s="139"/>
+      <x:c r="E22" s="139"/>
+      <x:c r="F22" s="139"/>
+      <x:c r="G22" s="139"/>
+      <x:c r="H22" s="139"/>
+      <x:c r="I22" s="140" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J22" s="141"/>
+      <x:c r="K22" s="142"/>
+      <x:c r="L22" s="142"/>
+    </x:row>
+    <x:row r="23" spans="1:12" s="126" customFormat="1" ht="211.5" customHeight="1">
+      <x:c r="A23" s="129"/>
+      <x:c r="B23" s="143" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C23" s="131"/>
+      <x:c r="D23" s="131"/>
+      <x:c r="E23" s="131"/>
+      <x:c r="F23" s="131"/>
+      <x:c r="G23" s="131"/>
+      <x:c r="H23" s="131"/>
+      <x:c r="I23" s="135"/>
+      <x:c r="J23" s="135"/>
+      <x:c r="K23" s="136"/>
+      <x:c r="L23" s="136"/>
+    </x:row>
+    <x:row r="24" spans="1:12" s="126" customFormat="1" ht="211.5" customHeight="1">
+      <x:c r="A24" s="129"/>
+      <x:c r="B24" s="131"/>
+      <x:c r="C24" s="131"/>
+      <x:c r="D24" s="131"/>
+      <x:c r="E24" s="131"/>
+      <x:c r="F24" s="131"/>
+      <x:c r="G24" s="131"/>
+      <x:c r="H24" s="131"/>
+      <x:c r="I24" s="135" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J24" s="135"/>
+      <x:c r="K24" s="136"/>
+      <x:c r="L24" s="136"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="5">
-    <x:mergeCell ref="A2:G2"/>
-    <x:mergeCell ref="H2:I2"/>
-    <x:mergeCell ref="A3:G4"/>
-    <x:mergeCell ref="H3:I3"/>
-    <x:mergeCell ref="H4:I4"/>
+  <x:mergeCells count="25">
+    <x:mergeCell ref="I7:J7"/>
+    <x:mergeCell ref="I8:J8"/>
+    <x:mergeCell ref="B2:H2"/>
+    <x:mergeCell ref="B3:H4"/>
+    <x:mergeCell ref="B7:H7"/>
+    <x:mergeCell ref="I9:J9"/>
+    <x:mergeCell ref="B8:H9"/>
+    <x:mergeCell ref="B12:H12"/>
+    <x:mergeCell ref="B13:H14"/>
+    <x:mergeCell ref="B17:H17"/>
+    <x:mergeCell ref="B18:H19"/>
+    <x:mergeCell ref="B22:H22"/>
+    <x:mergeCell ref="B23:H24"/>
+    <x:mergeCell ref="I2:L2"/>
+    <x:mergeCell ref="I3:L3"/>
+    <x:mergeCell ref="I4:L4"/>
+    <x:mergeCell ref="I13:L13"/>
+    <x:mergeCell ref="I12:L12"/>
+    <x:mergeCell ref="I14:L14"/>
+    <x:mergeCell ref="I17:L17"/>
+    <x:mergeCell ref="I18:L18"/>
+    <x:mergeCell ref="I19:L19"/>
+    <x:mergeCell ref="I22:L22"/>
+    <x:mergeCell ref="I23:L23"/>
+    <x:mergeCell ref="I24:L24"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
